--- a/src/assets/doc/vue源码.xlsx
+++ b/src/assets/doc/vue源码.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hubery\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wgf\js\test\simple\src\assets\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="175">
   <si>
     <t>Vue.use(ElementUI);</t>
   </si>
@@ -176,12 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>   * Create asset registration methods.</t>
-  </si>
-  <si>
-    <t>   */</t>
-  </si>
-  <si>
     <t>    ) {</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
     <t>    };</t>
   </si>
   <si>
-    <t>  /**</t>
-  </si>
-  <si>
     <t>  ASSET_TYPES.forEach(function (type) {</t>
   </si>
   <si>
@@ -258,10 +249,6 @@
   </si>
   <si>
     <t>  ASSET_TYPES.forEach(function (type) {     //type=='component'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>        /* istanbul ignore if */</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -300,9 +287,6 @@
     <t>    });</t>
   </si>
   <si>
-    <t>  Vue.extend = function (extendOptions) {</t>
-  </si>
-  <si>
     <t>    extendOptions = extendOptions || {};</t>
   </si>
   <si>
@@ -436,8 +420,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>      this._init(options);        //this</t>
+    <t>    // allow further extension/mixin/plugin usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    Sub.extend = Super.extend;      //</t>
     </r>
     <r>
       <rPr>
@@ -447,175 +435,176 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>就是Vue</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>    // allow further extension/mixin/plugin usage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>    Sub.extend = Super.extend;      //</t>
-    </r>
-    <r>
-      <rPr>
+      <t>给子类也提供继承功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>    Sub.superOptions = Super.options;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function initUse (Vue) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>  Vue.use = function (plugin) {  //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        plugin.install.apply(plugin, args);    //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>组件自己注册</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    Vue.component(component.name, component);  //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局注册每个组件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function initAssetRegisters (Vue) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>      );</t>
+  </si>
+  <si>
+    <t>  }</t>
+  </si>
+  <si>
+    <t>  // config</t>
+  </si>
+  <si>
+    <t>  var configDef = {};</t>
+  </si>
+  <si>
+    <t>  configDef.get = function () { return config; };</t>
+  </si>
+  <si>
+    <t>  if (process.env.NODE_ENV !== 'production') {</t>
+  </si>
+  <si>
+    <t>    configDef.set = function () {</t>
+  </si>
+  <si>
+    <t>      warn(</t>
+  </si>
+  <si>
+    <t>        'Do not replace the Vue.config object, set individual fields instead.'</t>
+  </si>
+  <si>
+    <t>  // exposed util methods.</t>
+  </si>
+  <si>
+    <t>  // NOTE: these are not considered part of the public API - avoid relying on</t>
+  </si>
+  <si>
+    <t>  // them unless you are aware of the risk.</t>
+  </si>
+  <si>
+    <t>  Vue.util = {</t>
+  </si>
+  <si>
+    <t>    warn: warn,</t>
+  </si>
+  <si>
+    <t>    extend: extend,</t>
+  </si>
+  <si>
+    <t>    mergeOptions: mergeOptions,</t>
+  </si>
+  <si>
+    <t>    defineReactive: defineReactive$$1</t>
+  </si>
+  <si>
+    <t>  Vue.set = set;</t>
+  </si>
+  <si>
+    <t>  Vue.delete = del;</t>
+  </si>
+  <si>
+    <t>  Vue.nextTick = nextTick;</t>
+  </si>
+  <si>
+    <t>  // 2.6 explicit observable API</t>
+  </si>
+  <si>
+    <t>    observe(obj);</t>
+  </si>
+  <si>
+    <t>    return obj</t>
+  </si>
+  <si>
+    <t>    Vue.options[type + 's'] = Object.create(null);</t>
+  </si>
+  <si>
+    <t>  // this is used to identify the "base" constructor to extend all plain-object</t>
+  </si>
+  <si>
+    <t>  extend(Vue.options.components, builtInComponents);</t>
+  </si>
+  <si>
+    <t>function initGlobalAPI (Vue) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>        this.options[type + 's'][id] = definition;    //this.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>options</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>给子类也提供继承功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>    Sub.superOptions = Super.options;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function initUse (Vue) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>  Vue.use = function (plugin) {  //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>注册</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        plugin.install.apply(plugin, args);    //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>组件自己注册</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>    Vue.component(component.name, component);  //</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全局注册每个组件</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>function initAssetRegisters (Vue) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>      );</t>
-  </si>
-  <si>
-    <t>  }</t>
-  </si>
-  <si>
-    <t>  // config</t>
-  </si>
-  <si>
-    <t>  var configDef = {};</t>
-  </si>
-  <si>
-    <t>  configDef.get = function () { return config; };</t>
-  </si>
-  <si>
-    <t>  if (process.env.NODE_ENV !== 'production') {</t>
-  </si>
-  <si>
-    <t>    configDef.set = function () {</t>
-  </si>
-  <si>
-    <t>      warn(</t>
-  </si>
-  <si>
-    <t>        'Do not replace the Vue.config object, set individual fields instead.'</t>
-  </si>
-  <si>
-    <t>  // exposed util methods.</t>
-  </si>
-  <si>
-    <t>  // NOTE: these are not considered part of the public API - avoid relying on</t>
-  </si>
-  <si>
-    <t>  // them unless you are aware of the risk.</t>
-  </si>
-  <si>
-    <t>  Vue.util = {</t>
-  </si>
-  <si>
-    <t>    warn: warn,</t>
-  </si>
-  <si>
-    <t>    extend: extend,</t>
-  </si>
-  <si>
-    <t>    mergeOptions: mergeOptions,</t>
-  </si>
-  <si>
-    <t>    defineReactive: defineReactive$$1</t>
-  </si>
-  <si>
-    <t>  Vue.set = set;</t>
-  </si>
-  <si>
-    <t>  Vue.delete = del;</t>
-  </si>
-  <si>
-    <t>  Vue.nextTick = nextTick;</t>
-  </si>
-  <si>
-    <t>  // 2.6 explicit observable API</t>
-  </si>
-  <si>
-    <t>    observe(obj);</t>
-  </si>
-  <si>
-    <t>    return obj</t>
-  </si>
-  <si>
-    <t>    Vue.options[type + 's'] = Object.create(null);</t>
-  </si>
-  <si>
-    <t>  // this is used to identify the "base" constructor to extend all plain-object</t>
-  </si>
-  <si>
-    <t>  extend(Vue.options.components, builtInComponents);</t>
-  </si>
-  <si>
-    <t>function initGlobalAPI (Vue) {</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>        this.options[type + 's'][id] = definition;    //this.</t>
+      <t>全局组件容器</t>
     </r>
     <r>
       <rPr>
@@ -625,7 +614,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>options</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -636,7 +625,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>全局组件容器</t>
+      <t>在</t>
     </r>
     <r>
       <rPr>
@@ -646,7 +635,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>,</t>
+      <t>initGlobalAPI</t>
     </r>
     <r>
       <rPr>
@@ -657,34 +646,127 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>在</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>里创建</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>  Vue.observable = function (obj) {  //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简单状态共享管理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>  Vue.options = Object.create(null);   //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全局组件容器</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  Vue.options._base = Vue;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  // components with in Weex's multi-instance scenarios.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  Object.defineProperty(Vue, 'config', configDef);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  initUse(Vue);             //Vue.use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  initMixin$1(Vue);         //Vue.mixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  initExtend(Vue);          //Vue.extend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  initAssetRegisters(Vue);  //var ASSET_TYPES = ['component', 'directive', 'filter'];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    Sub.prototype = Object.create(Super.prototype);  //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子构造函数继承父构造的prototype</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    Sub.prototype.constructor = Sub;   //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>initGlobalAPI</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>Sub.prototype</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>里创建</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>  Vue.observable = function (obj) {  //</t>
+      <t>赋值会导致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Sub.prototype.constructor</t>
     </r>
     <r>
       <rPr>
@@ -694,57 +776,106 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>简单状态共享管理</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>  Vue.options = Object.create(null);   //</t>
-    </r>
-    <r>
-      <rPr>
+      <t>丢失</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  Vue.extend = function (extendOptions) {</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>      this._init(options);        //this</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>全局组件容器</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  Vue.options._base = Vue;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  // components with in Weex's multi-instance scenarios.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  Object.defineProperty(Vue, 'config', configDef);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  initUse(Vue);             //Vue.use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  initMixin$1(Vue);         //Vue.mixin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  initExtend(Vue);          //Vue.extend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>  initAssetRegisters(Vue);  //var ASSET_TYPES = ['component', 'directive', 'filter'];</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>    Sub.prototype = Object.create(Super.prototype);  //</t>
+      <t>就是Vue</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function initMixin (Vue) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vue.prototype._init = function (options) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var vm = this;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vm._uid = uid$3++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var startTag, endTag;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vm._isVue = true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    } else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      vm.$options = mergeOptions(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        resolveConstructorOptions(vm.constructor),</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        options || {},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        vm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (process.env.NODE_ENV !== 'production') {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      vm._renderProxy = vm;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    vm._self = vm;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    initLifecycle(vm);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    initEvents(vm);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    callHook(vm, 'beforeCreate');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    initInjections(vm); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    initProvide(vm); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    callHook(vm, 'created');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (vm.$options.el) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  };</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      initProxy(vm);    //</t>
     </r>
     <r>
       <rPr>
@@ -754,62 +885,65 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>子构造函数继承父构造的prototype</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>    Sub.prototype.constructor = Sub;   //</t>
-    </r>
-    <r>
-      <rPr>
+      <t>代理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    initRender(vm);         //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$createElement</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    initState(vm);         //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prop,data,method</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>对</t>
-    </r>
-    <r>
-      <rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="8"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>Sub.prototype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赋值会导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Sub.prototype.constructor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>丢失</t>
-    </r>
+      <t xml:space="preserve">Observer </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      vm.$mount(vm.$options.el);    //mount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,7 +1039,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,6 +1050,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,18 +1335,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="41.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.875" customWidth="1"/>
-    <col min="4" max="4" width="94.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
+    <col min="4" max="4" width="53.625" customWidth="1"/>
+    <col min="5" max="5" width="87.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1222,12 +1360,12 @@
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1275,7 +1413,7 @@
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1309,62 +1447,62 @@
     </row>
     <row r="22" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -1376,680 +1514,913 @@
     <row r="33" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="C40" s="3"/>
+      <c r="D40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
-      <c r="C41" s="3" t="s">
-        <v>59</v>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="3"/>
       <c r="D42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="3"/>
       <c r="D45" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="2" t="s">
-        <v>66</v>
-      </c>
     </row>
     <row r="47" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="3"/>
       <c r="D51" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="3"/>
       <c r="D52" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D53" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D54" s="2"/>
+      <c r="E54" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="3"/>
-      <c r="D64" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="3"/>
-      <c r="D65" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="3"/>
-    </row>
-    <row r="78" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="3"/>
-    </row>
-    <row r="83" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D82" s="2"/>
+      <c r="E82" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="15" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="3"/>
       <c r="D87" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
       <c r="D88" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="3"/>
       <c r="D89" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="3"/>
       <c r="D90" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="3"/>
       <c r="D91" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="D92" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="3"/>
       <c r="D93" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="3"/>
       <c r="D94" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="3"/>
       <c r="D95" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="2" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="97" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="3"/>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="3"/>
       <c r="D98" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="3"/>
+      <c r="D99" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="100" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="3"/>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="3"/>
       <c r="D102" s="2" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="3"/>
       <c r="D103" s="2" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
       <c r="D104" s="2" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="3"/>
-    </row>
-    <row r="106" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D105" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="D107" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="3"/>
+      <c r="D108" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B109" s="2"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B110" s="2"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B111" s="2"/>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B112" s="2"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B113" s="2"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B114" s="2"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B115" s="2"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B116" s="2"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B117" s="2"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B118" s="2"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B119" s="2"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B120" s="2"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B121" s="2"/>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B122" s="2"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B123" s="2"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B124" s="2"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B125" s="2"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B126" s="2"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B127" s="2"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B128" s="2"/>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B129" s="2"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B130" s="2"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B131" s="2"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B132" s="2"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B133" s="2"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="15" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B134" s="2"/>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B135" s="2"/>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B136" s="2"/>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2" t="s">
+    <row r="145" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="150" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2" t="s">
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="15" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="124" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2073,102 +2444,102 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -2178,37 +2549,37 @@
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -2218,17 +2589,17 @@
     </row>
     <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -2238,42 +2609,42 @@
     </row>
     <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
